--- a/use-cases/use-case-procura-receita.xlsx
+++ b/use-cases/use-case-procura-receita.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Use Case:</t>
   </si>
@@ -71,9 +71,6 @@
     <t>3-Escolhe filtros pretendidos</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Realiza pesquisa com os filtros escolhidos </t>
-  </si>
-  <si>
     <t>5-Apresenta resultados de pesquisa</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>2.1- Não seleciona filtros</t>
   </si>
   <si>
-    <t>2.2-Volta a 4</t>
-  </si>
-  <si>
     <t>Exceção 1</t>
   </si>
   <si>
@@ -129,6 +123,15 @@
   </si>
   <si>
     <t xml:space="preserve"> pretendida]</t>
+  </si>
+  <si>
+    <t>2.2-Pesquisa preferências do user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Realiza pesquisa com os filtros obtidos </t>
+  </si>
+  <si>
+    <t>2.3-Volta a 4</t>
   </si>
 </sst>
 </file>
@@ -389,12 +392,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,24 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,14 +716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,14 +774,14 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,16 +830,16 @@
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -878,7 +882,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
@@ -889,7 +893,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -897,7 +901,7 @@
     <row r="24" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -907,44 +911,46 @@
     </row>
     <row r="25" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="15" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -955,23 +961,23 @@
     </row>
     <row r="29" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
@@ -981,7 +987,7 @@
     </row>
     <row r="31" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -992,73 +998,73 @@
     </row>
     <row r="32" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
@@ -1071,6 +1077,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:H36"/>
@@ -1087,34 +1121,6 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/use-cases/use-case-procura-receita.xlsx
+++ b/use-cases/use-case-procura-receita.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/Documents/3ºano/2semestre/LI4/li4-project/use-cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3A2S\LI4\projeto-li4\use-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE47DE0-FCBC-4087-9BAF-D1766EA49CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16125" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Use Case:</t>
   </si>
@@ -53,91 +54,66 @@
     <t>Procurar receitas com filtro</t>
   </si>
   <si>
-    <t>Utilizador</t>
-  </si>
-  <si>
     <t>Estar autenticado no sistema</t>
   </si>
   <si>
     <t xml:space="preserve"> acede a receita pretendida</t>
   </si>
   <si>
-    <t>1-Seleciona pesquisa</t>
-  </si>
-  <si>
-    <t>2-Apresenta campo de filtros</t>
-  </si>
-  <si>
-    <t>3-Escolhe filtros pretendidos</t>
-  </si>
-  <si>
-    <t>5-Apresenta resultados de pesquisa</t>
-  </si>
-  <si>
-    <t>6-Seleciona receita pretendida</t>
-  </si>
-  <si>
-    <t>Alternativa</t>
-  </si>
-  <si>
-    <t>1 (passo 2)</t>
-  </si>
-  <si>
-    <t>2.1- Não seleciona filtros</t>
-  </si>
-  <si>
-    <t>Exceção 1</t>
-  </si>
-  <si>
-    <t>(passo 6)</t>
-  </si>
-  <si>
-    <t>6.1-Não encontra receita pretendida</t>
-  </si>
-  <si>
-    <t>6.2-Sai da pesquisa</t>
-  </si>
-  <si>
-    <t>2 (passo 6)</t>
-  </si>
-  <si>
-    <t>6.2-Volta para 1</t>
-  </si>
-  <si>
     <t>[não quer</t>
   </si>
   <si>
     <t>filtros]</t>
   </si>
   <si>
-    <t>receita</t>
-  </si>
-  <si>
-    <t>[não existe</t>
-  </si>
-  <si>
-    <t>a receita]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[não tem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretendida]</t>
-  </si>
-  <si>
-    <t>2.2-Pesquisa preferências do user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Realiza pesquisa com os filtros obtidos </t>
-  </si>
-  <si>
-    <t>2.3-Volta a 4</t>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>(passo 2)</t>
+  </si>
+  <si>
+    <t>1-Apresenta campo de filtros</t>
+  </si>
+  <si>
+    <t>2-Escolhe filtros pretendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Realiza pesquisa com os filtros obtidos </t>
+  </si>
+  <si>
+    <t>4-Apresenta resultados de pesquisa</t>
+  </si>
+  <si>
+    <t>5-Seleciona receita pretendida</t>
+  </si>
+  <si>
+    <t>5.1-Não encontra receita pretendida</t>
+  </si>
+  <si>
+    <t>2.1-Pesquisa preferências do user</t>
+  </si>
+  <si>
+    <t>2.2-Volta a 4</t>
+  </si>
+  <si>
+    <t>(passo 5)</t>
+  </si>
+  <si>
+    <t>5.2-Encerra processo.</t>
+  </si>
+  <si>
+    <t>Alternativa 1
+[não quer</t>
+  </si>
+  <si>
+    <t>Exceção 1
+[não tem resultados]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -174,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -236,17 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -288,15 +253,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -353,33 +309,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -392,6 +339,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,41 +366,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,6 +387,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -713,120 +657,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,286 +786,176 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="15" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
+  <mergeCells count="28">
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/use-cases/use-case-procura-receita.xlsx
+++ b/use-cases/use-case-procura-receita.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3A2S\LI4\projeto-li4\use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/Documents/3ºano/2semestre/LI4/li4-project/use-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE47DE0-FCBC-4087-9BAF-D1766EA49CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16125" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Use Case:</t>
   </si>
@@ -60,9 +59,6 @@
     <t xml:space="preserve"> acede a receita pretendida</t>
   </si>
   <si>
-    <t>[não quer</t>
-  </si>
-  <si>
     <t>filtros]</t>
   </si>
   <si>
@@ -78,22 +74,7 @@
     <t>2-Escolhe filtros pretendidos</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Realiza pesquisa com os filtros obtidos </t>
-  </si>
-  <si>
-    <t>4-Apresenta resultados de pesquisa</t>
-  </si>
-  <si>
-    <t>5-Seleciona receita pretendida</t>
-  </si>
-  <si>
     <t>5.1-Não encontra receita pretendida</t>
-  </si>
-  <si>
-    <t>2.1-Pesquisa preferências do user</t>
-  </si>
-  <si>
-    <t>2.2-Volta a 4</t>
   </si>
   <si>
     <t>(passo 5)</t>
@@ -108,12 +89,33 @@
   <si>
     <t>Exceção 1
 [não tem resultados]</t>
+  </si>
+  <si>
+    <t>[não tem</t>
+  </si>
+  <si>
+    <t>3.2- volta a 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3- seleciona pesquisa</t>
+  </si>
+  <si>
+    <t>3.1 Obtêm preferências do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Realiza pesquisa com os filtros </t>
+  </si>
+  <si>
+    <t>5-Apresenta resultados de pesquisa</t>
+  </si>
+  <si>
+    <t>6-Seleciona receita pretendida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -330,53 +332,53 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,23 +659,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -684,7 +686,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -694,7 +696,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -704,7 +706,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -719,243 +721,256 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="C23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/use-cases/use-case-procura-receita.xlsx
+++ b/use-cases/use-case-procura-receita.xlsx
@@ -74,9 +74,6 @@
     <t>2-Escolhe filtros pretendidos</t>
   </si>
   <si>
-    <t>5.1-Não encontra receita pretendida</t>
-  </si>
-  <si>
     <t>(passo 5)</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
 [não tem resultados]</t>
   </si>
   <si>
-    <t>[não tem</t>
-  </si>
-  <si>
-    <t>3.2- volta a 3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3- seleciona pesquisa</t>
   </si>
   <si>
@@ -110,6 +101,15 @@
   </si>
   <si>
     <t>6-Seleciona receita pretendida</t>
+  </si>
+  <si>
+    <t>[cliente não quer</t>
+  </si>
+  <si>
+    <t>3.2- volta a 4</t>
+  </si>
+  <si>
+    <t>5.1-Não encontra receitas pretendidas</t>
   </si>
 </sst>
 </file>
@@ -335,6 +335,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,13 +353,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,24 +378,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,14 +663,14 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,214 +721,214 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
@@ -941,20 +941,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="C26:E26"/>
@@ -971,6 +957,20 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
